--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,11 +525,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>central_accountant</t>
+          <t>central_admin</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -547,36 +547,38 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-11-29T19:19:42.209016+05:45</t>
+          <t>2022-11-29T11:40:29.878938+05:45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-11-29T19:28:19.045114+05:45</t>
+          <t>2022-11-30T09:56:28.527004+05:45</t>
         </is>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>234234</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>234</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,25 +496,30 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>type_application_id</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>get_user_application_detail</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>user</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>in_district_approved_by</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>in_state_approved_by</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>in_central_approved_by</t>
         </is>
@@ -544,7 +549,11 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>2022-11-29T11:40:29.878938+05:45</t>
@@ -552,7 +561,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-11-30T09:56:28.527004+05:45</t>
+          <t>2022-11-30T13:21:07.217079+05:45</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -565,18 +574,23 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>23</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>40</v>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>18</v>
       </c>
     </row>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -441,72 +441,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dsc</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>district_status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>state_status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>central_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>private_status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>approved_pending_cancelled</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>is_payment</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>bill_number</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>payment_get</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>type_application_id</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>get_user_application_detail</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -532,13 +532,13 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>central_admin</t>
         </is>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -549,44 +549,44 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2022-11-29T11:40:29.878938+05:45</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2022-11-30T13:21:07.217079+05:45</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2022-11-30T13:26:43.523007+05:45</t>
+        </is>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>234234</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>234234</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -441,72 +441,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>dsc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>district_status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>state_status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>central_status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>private_status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>approved_pending_cancelled</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>is_payment</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>bill_number</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>payment_get</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>type_application_id</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>get_user_application_detail</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>user</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dsc</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>district_status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>state_status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>central_status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>private_status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>approved_pending_cancelled</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>is_payment</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>bill_number</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>payment_get</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>type_application_id</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>get_user_application_detail</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -532,13 +532,13 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>central_admin</t>
         </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -549,27 +549,29 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2022-11-29T11:40:29.878938+05:45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2022-11-29T11:40:29.878938+05:45</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>2022-11-30T13:26:43.523007+05:45</t>
         </is>
       </c>
-      <c r="L2" t="b">
+      <c r="K2" t="b">
         <v>1</v>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>234234</t>
@@ -577,16 +579,14 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>234234</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v>23</v>
+      </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -441,72 +441,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>get_user_application_detail</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>dsc</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>district_status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>state_status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>central_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>private_status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>approved_pending_cancelled</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>is_payment</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>bill_number</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>payment_get</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type_application_id</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>get_user_application_detail</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -534,14 +534,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>OrderedDict([('id', 40), ('password', 'pbkdf2_sha256$390000$MUIB8FwHiRDV6Phpz2UsCA$utHSfT/1pqI47SdblTUanKF+KhLFtCOwuLd7kwbrKWA='), ('last_login', '2022-11-30T13:26:36.001018+05:45'), ('is_superuser', False), ('first_name', 'private user'), ('last_name', ''), ('is_staff', False), ('is_active', True), ('date_joined', '2022-11-29T11:35:16.469786+05:45'), ('sex', None), ('phone', '9808098'), ('permanent_address', None), ('email', 'user@gmail.com'), ('username', 'user'), ('state_name', 'Madhesh Province'), ('district_name', 'Dhanusha'), ('is_verified', True), ('is_applyForVerified', True), ('apply_role_type', 5), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('approved_name', None), ('approved_email', None), ('approved_signature', None), ('approved_company_name', None), ('image', None), ('signature', None), ('member_admin', 'member'), ('created_at', '2022-11-29T11:35:16.940528+05:45'), ('updated_at', '2022-11-29T11:40:29.692399+05:45'), ('role', 5), ('groups', []), ('user_permissions', [])])</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OrderedDict([('id', 23), ('owner_full_name', 'private user'), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('business_name', 'plywood_industry'), ('business_price_category', 'less_than_25_lakh'), ('is_reniew', False), ('payment_rupees', 10000), ('voucher_number', 'None'), ('municipality', 'Mithila'), ('ward_number', '2'), ('tole', 'topa'), ('authorized_capital_of_company', 98), ('paid_up_capital_of_company', 98), ('transaction_amount', 98), ('tax_amount', 987), ('number_of_employees', 98), ('approved_name', 'central'), ('approved_email', 'central@gmail.com'), ('approved_signature', '/media/user/documents/signature_eLOwzGt.jpeg'), ('approved_company_name', None), ('certificate_citizenship', '/media/user/documents/Doc1_srdTaWL.jpg'), ('certificate_company_registration', '/media/user/documents/Doc2_mG3bf1z.jpg'), ('provisional_account_number', '/media/user/documents/Doc3_VPLgpYj.jpg'), ('auditing', None), ('tax_paid_certificate', '/media/user/documents/Doc1_NohrdG2.jpg'), ('industry_registration', None), ('income_certificate', None), ('member_approved_certificate', None), ('self_declaration_not_on_the_black_list', None), ('bank_voucher', '/media/user/documents/Doc4_5ImSOYl.jpg'), ('industry_certificate', '/media/user/documents/qrcode.jpeg'), ('application_certificate', '/media/user/documents/certi.pdf'), ('physical_year', '2078'), ('created_at', '2022-11-29T11:40:29.785957+05:45'), ('updated_at', '2022-11-30T13:26:43.443179+05:45'), ('user', 40)])</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>central_admin</t>
         </is>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -549,44 +553,44 @@
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2022-11-29T11:40:29.878938+05:45</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2022-11-30T13:26:43.523007+05:45</t>
         </is>
       </c>
-      <c r="K2" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>234234</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>234234</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
-      </c>
-      <c r="O2" t="n">
-        <v>23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2022-11-30T13:26:43.523007+05:45</t>
+          <t>2022-12-01T13:11:13.888201+05:45</t>
         </is>
       </c>
       <c r="M2" t="b">
@@ -589,7 +589,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>

--- a/report/static/excel/detail.xlsx
+++ b/report/static/excel/detail.xlsx
@@ -534,17 +534,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OrderedDict([('id', 40), ('password', 'pbkdf2_sha256$390000$MUIB8FwHiRDV6Phpz2UsCA$utHSfT/1pqI47SdblTUanKF+KhLFtCOwuLd7kwbrKWA='), ('last_login', '2022-11-30T13:26:36.001018+05:45'), ('is_superuser', False), ('first_name', 'private user'), ('last_name', ''), ('is_staff', False), ('is_active', True), ('date_joined', '2022-11-29T11:35:16.469786+05:45'), ('sex', None), ('phone', '9808098'), ('permanent_address', None), ('email', 'user@gmail.com'), ('username', 'user'), ('state_name', 'Madhesh Province'), ('district_name', 'Dhanusha'), ('is_verified', True), ('is_applyForVerified', True), ('apply_role_type', 5), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('approved_name', None), ('approved_email', None), ('approved_signature', None), ('approved_company_name', None), ('image', None), ('signature', None), ('member_admin', 'member'), ('created_at', '2022-11-29T11:35:16.940528+05:45'), ('updated_at', '2022-11-29T11:40:29.692399+05:45'), ('role', 5), ('groups', []), ('user_permissions', [])])</t>
+          <t>OrderedDict([('id', 40), ('password', 'pbkdf2_sha256$390000$MUIB8FwHiRDV6Phpz2UsCA$utHSfT/1pqI47SdblTUanKF+KhLFtCOwuLd7kwbrKWA='), ('last_login', '2022-12-04T12:10:25.702914+05:45'), ('is_superuser', False), ('first_name', 'private user'), ('last_name', ''), ('is_staff', False), ('is_active', True), ('date_joined', '2022-11-29T11:35:16.469786+05:45'), ('sex', None), ('phone', '9808098'), ('permanent_address', None), ('email', 'manojdas.py@gmail.com'), ('username', 'user'), ('state_name', 'Madhesh Province'), ('district_name', 'Dhanusha'), ('is_verified', True), ('is_applyForVerified', True), ('apply_role_type', 3), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('approved_name', None), ('approved_email', 'manojdas.py@gmail.com'), ('approved_signature', None), ('approved_company_name', 'md company'), ('image', '/media/user/profile/my_photo.JPG'), ('signature', '/media/user/documents/signature_ceo.jpeg'), ('member_admin', 'admin'), ('created_at', '2022-11-29T11:35:16.940528+05:45'), ('updated_at', '2022-12-04T12:07:18.398027+05:45'), ('role', 5), ('groups', []), ('user_permissions', [])])</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OrderedDict([('id', 23), ('owner_full_name', 'private user'), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('business_name', 'plywood_industry'), ('business_price_category', 'less_than_25_lakh'), ('is_reniew', False), ('payment_rupees', 10000), ('voucher_number', 'None'), ('municipality', 'Mithila'), ('ward_number', '2'), ('tole', 'topa'), ('authorized_capital_of_company', 98), ('paid_up_capital_of_company', 98), ('transaction_amount', 98), ('tax_amount', 987), ('number_of_employees', 98), ('approved_name', 'central'), ('approved_email', 'central@gmail.com'), ('approved_signature', '/media/user/documents/signature_eLOwzGt.jpeg'), ('approved_company_name', None), ('certificate_citizenship', '/media/user/documents/Doc1_srdTaWL.jpg'), ('certificate_company_registration', '/media/user/documents/Doc2_mG3bf1z.jpg'), ('provisional_account_number', '/media/user/documents/Doc3_VPLgpYj.jpg'), ('auditing', None), ('tax_paid_certificate', '/media/user/documents/Doc1_NohrdG2.jpg'), ('industry_registration', None), ('income_certificate', None), ('member_approved_certificate', None), ('self_declaration_not_on_the_black_list', None), ('bank_voucher', '/media/user/documents/Doc4_5ImSOYl.jpg'), ('industry_certificate', '/media/user/documents/qrcode.jpeg'), ('application_certificate', '/media/user/documents/certi.pdf'), ('physical_year', '2078'), ('created_at', '2022-11-29T11:40:29.785957+05:45'), ('updated_at', '2022-11-30T13:26:43.443179+05:45'), ('user', 40)])</t>
+          <t>OrderedDict([('id', 23), ('owner_full_name', 'private user'), ('company_name', 'private company'), ('union_type', 'district'), ('union_name', 'central@gmail.com'), ('business_name', 'plywood_industry'), ('business_price_category', 'less_than_2_crode'), ('is_reniew', True), ('payment_rupees', 10000), ('voucher_number', 'None'), ('municipality', 'Mithila'), ('ward_number', '2'), ('tole', 'topa'), ('authorized_capital_of_company', 98), ('paid_up_capital_of_company', 98), ('transaction_amount', 9822), ('tax_amount', 987), ('number_of_employees', 98), ('approved_name', 'central'), ('approved_email', 'central@gmail.com'), ('approved_signature', '/media/user/documents/signature_eLOwzGt.jpeg'), ('approved_company_name', None), ('certificate_citizenship', '/media/user/documents/Doc1_srdTaWL.jpg'), ('certificate_company_registration', '/media/user/documents/Doc2_mG3bf1z.jpg'), ('provisional_account_number', '/media/user/documents/Doc3_VPLgpYj.jpg'), ('auditing', None), ('tax_paid_certificate', '/media/user/documents/Doc1_NohrdG2.jpg'), ('industry_registration', None), ('income_certificate', None), ('member_approved_certificate', None), ('self_declaration_not_on_the_black_list', None), ('bank_voucher', '/media/user/documents/qr-new.jpg'), ('industry_certificate_front_side', '/media/user/documents/my_photo.JPG'), ('industry_certificate_back_side', '/media/user/documents/my_photo_hGyyNkP.JPG'), ('application_certificate', '/media/user/documents/pdfdmd_mceV4Kr.pdf'), ('physical_year', '2078'), ('created_at', '2022-11-29T11:40:29.785957+05:45'), ('updated_at', '2022-12-04T13:18:04.467115+05:45'), ('user', 40)])</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>central_admin</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -559,11 +559,7 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>2022-11-29T11:40:29.878938+05:45</t>
@@ -571,7 +567,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2022-12-01T13:11:13.888201+05:45</t>
+          <t>2022-12-04T13:18:04.535319+05:45</t>
         </is>
       </c>
       <c r="M2" t="b">
